--- a/TMTstop-A_1/TMTstop-A_1_merged.xlsx
+++ b/TMTstop-A_1/TMTstop-A_1_merged.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Experiment paradigms/TMT_PsychoPY_new/TMTstop-A_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999C7D68-9170-4123-BA88-AE512A1406E7}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="13_ncr:1_{ED9D02F7-1230-44A2-A7DC-15FEAC8DD2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FFA0E06-9371-48DB-A0FD-EA3B028800B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="462">
   <si>
     <t>StimFile</t>
   </si>
@@ -1417,6 +1417,9 @@
   </si>
   <si>
     <t>TrialNumber_session</t>
+  </si>
+  <si>
+    <t>Feedback_last</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,6 +2441,9 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -3102,6 +3108,9 @@
       <c r="G53">
         <v>2</v>
       </c>
+      <c r="H53" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -3766,6 +3775,9 @@
       <c r="G79">
         <v>3</v>
       </c>
+      <c r="H79" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -4430,6 +4442,9 @@
       <c r="G105">
         <v>4</v>
       </c>
+      <c r="H105" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -5094,6 +5109,9 @@
       <c r="G131">
         <v>5</v>
       </c>
+      <c r="H131" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
@@ -5757,6 +5775,9 @@
       </c>
       <c r="G157">
         <v>6</v>
+      </c>
+      <c r="H157" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
